--- a/BackTest/2020-01-16 BackTest BTG.xlsx
+++ b/BackTest/2020-01-16 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6833.242522109998</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>6615.946069609999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>6587.304369609999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -570,7 +558,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -1576,11 +1564,9 @@
         <v>4926.265131619999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>8920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1810,11 +1796,9 @@
         <v>4895.31093162</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>8920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -2044,11 +2028,9 @@
         <v>5111.289931619998</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2122,11 +2104,9 @@
         <v>4700.889231619998</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>9000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -8713,11 +8693,9 @@
         <v>9705.196044809994</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>9885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
@@ -8752,11 +8730,9 @@
         <v>9162.727144809995</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>9945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
@@ -8791,11 +8767,9 @@
         <v>9416.163544809995</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>9815</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8830,11 +8804,9 @@
         <v>9102.310935729995</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>9945</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8869,11 +8841,9 @@
         <v>7971.210635729994</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>9855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8908,11 +8878,9 @@
         <v>8173.053819559995</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>9805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -8947,11 +8915,9 @@
         <v>8045.003719559994</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>9900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8986,11 +8952,9 @@
         <v>8337.965219559994</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>9765</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -9025,11 +8989,9 @@
         <v>8470.048319559994</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>9795</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -9064,11 +9026,9 @@
         <v>8756.699723869993</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>9845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -9103,11 +9063,9 @@
         <v>8756.699723869993</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>9950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
@@ -9142,11 +9100,9 @@
         <v>9097.740181919993</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>9950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -9181,11 +9137,9 @@
         <v>9774.762100159993</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>9985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -9220,11 +9174,9 @@
         <v>9691.481300159992</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>10000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -9259,11 +9211,9 @@
         <v>9806.481300159992</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>9995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -9298,11 +9248,9 @@
         <v>9806.481300159992</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>10000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -9337,11 +9285,9 @@
         <v>10188.66562386999</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>10000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -9376,11 +9322,9 @@
         <v>10574.99722386999</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>10110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
@@ -9415,11 +9359,9 @@
         <v>13339.78042386999</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>10250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
@@ -14856,18 +14798,16 @@
         <v>74698.26362088999</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="inlineStr"/>
     </row>
     <row r="380">
@@ -14893,15 +14833,11 @@
         <v>78580.47420824999</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14930,15 +14866,11 @@
         <v>87200.76825926999</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14967,15 +14899,11 @@
         <v>83574.19564748999</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15004,15 +14932,11 @@
         <v>77400.70566675</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15041,15 +14965,11 @@
         <v>71072.06841841</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15078,15 +14998,11 @@
         <v>77645.48626877999</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15115,15 +15031,11 @@
         <v>86590.01200818</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15152,15 +15064,11 @@
         <v>99376.97465657</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15189,15 +15097,11 @@
         <v>87134.69581854</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15230,11 +15134,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15263,15 +15163,11 @@
         <v>86542.23517116999</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15304,11 +15200,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15341,11 +15233,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15378,11 +15266,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15415,11 +15299,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15452,11 +15332,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15489,11 +15365,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15526,11 +15398,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15563,11 +15431,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15600,11 +15464,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15633,15 +15493,11 @@
         <v>70404.36798883998</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15670,15 +15526,11 @@
         <v>74359.37720689998</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15707,15 +15559,11 @@
         <v>76775.90192703999</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15744,15 +15592,11 @@
         <v>74522.06914960999</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15785,11 +15629,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15822,11 +15662,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15859,11 +15695,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15896,11 +15728,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15933,11 +15761,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15966,15 +15790,11 @@
         <v>68654.20214025</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16003,15 +15823,11 @@
         <v>65636.11998157999</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16040,15 +15856,11 @@
         <v>62412.34620084999</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16077,15 +15889,11 @@
         <v>58265.16550084999</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16114,15 +15922,11 @@
         <v>54603.3738729</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16155,11 +15959,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16188,15 +15988,11 @@
         <v>45834.19915685999</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16225,15 +16021,11 @@
         <v>51736.60964342999</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16262,15 +16054,11 @@
         <v>57881.93030296999</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16299,15 +16087,11 @@
         <v>54321.96904690999</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16336,15 +16120,11 @@
         <v>57023.26435286998</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16377,11 +16157,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16414,11 +16190,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16451,11 +16223,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16488,11 +16256,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16525,11 +16289,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16562,11 +16322,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16599,11 +16355,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16632,16 +16384,14 @@
         <v>64749.23807541998</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="n">
+        <v>1</v>
+      </c>
       <c r="M427" t="inlineStr"/>
     </row>
     <row r="428">
@@ -16700,7 +16450,7 @@
         <v>62533.88128241998</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16832,7 +16582,7 @@
         <v>62364.63579251998</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17228,7 +16978,7 @@
         <v>78649.52840302997</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17921,7 +17671,7 @@
         <v>90360.67941333998</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17954,7 +17704,7 @@
         <v>89149.76461333998</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17987,7 +17737,7 @@
         <v>89998.05877288998</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18020,7 +17770,7 @@
         <v>89755.80167288998</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18053,7 +17803,7 @@
         <v>87340.66317288998</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18086,7 +17836,7 @@
         <v>88158.25110131998</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18119,7 +17869,7 @@
         <v>87348.26332974999</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18152,7 +17902,7 @@
         <v>88184.89872974998</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18185,7 +17935,7 @@
         <v>88453.47665329998</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18218,7 +17968,7 @@
         <v>87929.39735329998</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18251,7 +18001,7 @@
         <v>87363.19655329997</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18284,7 +18034,7 @@
         <v>87775.62945168998</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18317,7 +18067,7 @@
         <v>88206.35395168998</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18350,7 +18100,7 @@
         <v>87715.96537830998</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18383,7 +18133,7 @@
         <v>86394.77536213998</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18416,7 +18166,7 @@
         <v>88410.82776213998</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18449,7 +18199,7 @@
         <v>88410.82776213998</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18482,7 +18232,7 @@
         <v>89297.05367063997</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18515,7 +18265,7 @@
         <v>87154.27506740997</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18548,7 +18298,7 @@
         <v>87771.87556740997</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18581,7 +18331,7 @@
         <v>87859.18876291996</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18614,7 +18364,7 @@
         <v>87859.18876291996</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18647,7 +18397,7 @@
         <v>84026.14556291996</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18680,7 +18430,7 @@
         <v>84055.62906291996</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18713,7 +18463,7 @@
         <v>86502.94986291997</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18746,7 +18496,7 @@
         <v>86337.87656291996</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18779,7 +18529,7 @@
         <v>86360.11826291996</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18812,7 +18562,7 @@
         <v>86646.62847584997</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18845,7 +18595,7 @@
         <v>86915.49385515996</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -18878,7 +18628,7 @@
         <v>86915.49385515996</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18911,7 +18661,7 @@
         <v>86591.82305716997</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18944,7 +18694,7 @@
         <v>86606.81385716997</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18977,7 +18727,7 @@
         <v>86478.95285716996</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19010,7 +18760,7 @@
         <v>86681.37135716996</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19043,7 +18793,7 @@
         <v>86681.37135716996</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19076,7 +18826,7 @@
         <v>87020.20735716996</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19109,7 +18859,7 @@
         <v>87417.64304866995</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19142,7 +18892,7 @@
         <v>90056.58504866995</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19175,7 +18925,7 @@
         <v>90561.03444866995</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19208,7 +18958,7 @@
         <v>87858.35733724995</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19241,7 +18991,7 @@
         <v>87683.52731304996</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19274,7 +19024,7 @@
         <v>87412.29401304995</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19307,7 +19057,7 @@
         <v>87547.36635306994</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19340,7 +19090,7 @@
         <v>87828.14615306995</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19373,7 +19123,7 @@
         <v>88175.81993590994</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19406,7 +19156,7 @@
         <v>88237.05673590994</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19439,7 +19189,7 @@
         <v>88016.63863877994</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19472,7 +19222,7 @@
         <v>88327.99371326994</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19505,7 +19255,7 @@
         <v>87983.24791326994</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19538,7 +19288,7 @@
         <v>87227.45111326994</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19571,7 +19321,7 @@
         <v>87405.88721326995</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19604,7 +19354,7 @@
         <v>87757.37116495994</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19637,7 +19387,7 @@
         <v>88531.92119348994</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19670,7 +19420,7 @@
         <v>88441.75459348994</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19703,7 +19453,7 @@
         <v>88441.75459348994</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19736,7 +19486,7 @@
         <v>88611.79064926994</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19769,7 +19519,7 @@
         <v>89513.10779550995</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19802,7 +19552,7 @@
         <v>89290.36673794995</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19835,7 +19585,7 @@
         <v>88953.16323794995</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19868,7 +19618,7 @@
         <v>88528.78123794995</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19901,7 +19651,7 @@
         <v>88528.78123794995</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19934,7 +19684,7 @@
         <v>86799.09313108995</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19967,7 +19717,7 @@
         <v>86997.66153108995</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20000,7 +19750,7 @@
         <v>87162.94023108995</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20033,7 +19783,7 @@
         <v>82302.35113108995</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20066,7 +19816,7 @@
         <v>82238.06473108995</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20099,7 +19849,7 @@
         <v>81305.58173108996</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20132,7 +19882,7 @@
         <v>82871.69933108996</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20165,7 +19915,7 @@
         <v>83593.98123108996</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20198,7 +19948,7 @@
         <v>82990.44271644996</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20231,7 +19981,7 @@
         <v>83529.56240180996</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20264,7 +20014,7 @@
         <v>83035.59050180996</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20297,7 +20047,7 @@
         <v>83341.83373101996</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20330,7 +20080,7 @@
         <v>83308.17553101995</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20363,7 +20113,7 @@
         <v>86496.06783101996</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20396,7 +20146,7 @@
         <v>85581.79633101996</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20429,7 +20179,7 @@
         <v>85710.37733101996</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20462,7 +20212,7 @@
         <v>85882.27913101997</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20495,7 +20245,7 @@
         <v>85729.60853101997</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20528,7 +20278,7 @@
         <v>86223.71613101997</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20561,7 +20311,7 @@
         <v>86892.04810449998</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20594,7 +20344,7 @@
         <v>86892.04810449998</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20627,7 +20377,7 @@
         <v>86463.96160449997</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20660,7 +20410,7 @@
         <v>85196.23049030997</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20693,7 +20443,7 @@
         <v>85280.37755506998</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20726,7 +20476,7 @@
         <v>83853.28834612998</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20759,7 +20509,7 @@
         <v>83385.51674612999</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20792,7 +20542,7 @@
         <v>80739.57114612998</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20825,7 +20575,7 @@
         <v>81154.78654612998</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20858,7 +20608,7 @@
         <v>81341.07278403998</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20891,7 +20641,7 @@
         <v>82175.37734612997</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20924,7 +20674,7 @@
         <v>82909.96478562997</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20957,7 +20707,7 @@
         <v>83098.51634612997</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20990,7 +20740,7 @@
         <v>82726.58934612997</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21023,7 +20773,7 @@
         <v>83029.66164612997</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21056,7 +20806,7 @@
         <v>82467.14684612997</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21089,7 +20839,7 @@
         <v>82676.79054612997</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21122,7 +20872,7 @@
         <v>80120.02514612996</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21155,7 +20905,7 @@
         <v>79652.83594612997</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21188,7 +20938,7 @@
         <v>78673.37684612998</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21221,7 +20971,7 @@
         <v>77628.30384612997</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21254,7 +21004,7 @@
         <v>78283.88364612998</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21287,7 +21037,7 @@
         <v>77761.88084612998</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21320,7 +21070,7 @@
         <v>78224.49164612997</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21353,7 +21103,7 @@
         <v>77745.36014612997</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21386,7 +21136,7 @@
         <v>76713.33863663996</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21419,7 +21169,7 @@
         <v>75520.22733663996</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21452,7 +21202,7 @@
         <v>74079.11753663995</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21485,7 +21235,7 @@
         <v>75881.37803663996</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21518,7 +21268,7 @@
         <v>76489.89960106996</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21551,7 +21301,7 @@
         <v>76110.70980106997</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21584,7 +21334,7 @@
         <v>76385.94200106997</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21617,7 +21367,7 @@
         <v>75416.87436549997</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21650,7 +21400,7 @@
         <v>74915.98876549998</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21683,7 +21433,7 @@
         <v>75930.57986549998</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21716,7 +21466,7 @@
         <v>77023.31122879998</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21749,7 +21499,7 @@
         <v>76359.09154554998</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21782,7 +21532,7 @@
         <v>77852.49614554997</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21815,7 +21565,7 @@
         <v>79718.41298498998</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21848,7 +21598,7 @@
         <v>78580.75953957997</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21881,7 +21631,7 @@
         <v>79714.82143957997</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21914,7 +21664,7 @@
         <v>79256.82243957998</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21947,7 +21697,7 @@
         <v>78571.37750977998</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21980,7 +21730,7 @@
         <v>78571.37750977998</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22046,7 +21796,7 @@
         <v>78287.07807997998</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22079,7 +21829,7 @@
         <v>78506.40237997998</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22112,7 +21862,7 @@
         <v>77873.24707997998</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22145,7 +21895,7 @@
         <v>78365.67225289998</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22574,7 +22324,7 @@
         <v>79495.90573171996</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22607,7 +22357,7 @@
         <v>79174.80489991997</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -24686,7 +24436,7 @@
         <v>74190.72587626001</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24719,7 +24469,7 @@
         <v>73724.30847626</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24752,7 +24502,7 @@
         <v>74415.72657626</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25049,7 +24799,7 @@
         <v>74625.47234412999</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -25082,7 +24832,7 @@
         <v>74975.00384412998</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -25148,7 +24898,7 @@
         <v>73040.97334412999</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25181,7 +24931,7 @@
         <v>73471.99534412999</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25247,7 +24997,7 @@
         <v>73938.47094412999</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -27194,7 +26944,7 @@
         <v>84117.09756315002</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -27227,7 +26977,7 @@
         <v>84300.86741282002</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -27260,7 +27010,7 @@
         <v>85755.76826169003</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -27293,7 +27043,7 @@
         <v>85343.37106211003</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -27359,7 +27109,7 @@
         <v>89956.73999496004</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -27392,7 +27142,7 @@
         <v>92379.86785963003</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27425,7 +27175,7 @@
         <v>96482.66067657003</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -27458,7 +27208,7 @@
         <v>94270.93057657003</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -27491,7 +27241,7 @@
         <v>95817.77204314002</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -27524,7 +27274,7 @@
         <v>95817.77204314002</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -27557,7 +27307,7 @@
         <v>93673.59628393002</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -27590,7 +27340,7 @@
         <v>94463.37842129002</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -27623,7 +27373,7 @@
         <v>97303.03225222001</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -27656,7 +27406,7 @@
         <v>94640.87435452001</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -27689,7 +27439,7 @@
         <v>92407.47429596001</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -27722,7 +27472,7 @@
         <v>90893.52528638001</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -27755,7 +27505,7 @@
         <v>90463.63102494001</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -27788,7 +27538,7 @@
         <v>90463.63102494001</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -27821,7 +27571,7 @@
         <v>89930.28272494001</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -27854,7 +27604,7 @@
         <v>89688.18012754002</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -27887,7 +27637,7 @@
         <v>91839.63142754002</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -27920,7 +27670,7 @@
         <v>92539.44564415002</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -27953,7 +27703,7 @@
         <v>92269.26811057002</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -27986,7 +27736,7 @@
         <v>90586.08741057002</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28019,7 +27769,7 @@
         <v>90319.38221057002</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28052,7 +27802,7 @@
         <v>89646.23171057002</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -28085,7 +27835,7 @@
         <v>89072.42581057001</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -28118,7 +27868,7 @@
         <v>88523.80711057001</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28151,7 +27901,7 @@
         <v>88902.15571057</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28184,7 +27934,7 @@
         <v>88902.15571057</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -28217,7 +27967,7 @@
         <v>88632.93613081001</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -28250,7 +28000,7 @@
         <v>88532.93613081001</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -28283,7 +28033,7 @@
         <v>89619.54513081</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28316,7 +28066,7 @@
         <v>89982.49623081001</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28349,7 +28099,7 @@
         <v>89732.63503081001</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28382,7 +28132,7 @@
         <v>89703.47724385001</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28415,7 +28165,7 @@
         <v>89375.70604385</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -28448,7 +28198,7 @@
         <v>89060.69300663001</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -28481,7 +28231,7 @@
         <v>89229.78030663001</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -28514,7 +28264,7 @@
         <v>88903.86930663002</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -28547,7 +28297,7 @@
         <v>89009.83326672002</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -28580,7 +28330,7 @@
         <v>88745.52446672002</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -28613,7 +28363,7 @@
         <v>89060.90146672001</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -28646,7 +28396,7 @@
         <v>88951.28306672</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -28679,7 +28429,7 @@
         <v>88554.73806672001</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -28712,7 +28462,7 @@
         <v>88457.64486672</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28745,7 +28495,7 @@
         <v>88229.83217047001</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -28778,7 +28528,7 @@
         <v>88811.55037422001</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -28811,7 +28561,7 @@
         <v>88574.55917797</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -28844,7 +28594,7 @@
         <v>88449.65917797001</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -28877,7 +28627,7 @@
         <v>88172.36527797001</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -28910,7 +28660,7 @@
         <v>88128.96447797</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -28943,7 +28693,7 @@
         <v>87839.40627797</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -28976,7 +28726,7 @@
         <v>88206.29047797</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -29009,7 +28759,7 @@
         <v>87878.66587797001</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -29042,7 +28792,7 @@
         <v>88025.68377797001</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -29075,7 +28825,7 @@
         <v>87816.62417210001</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -29108,7 +28858,7 @@
         <v>87785.01007210001</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -29141,7 +28891,7 @@
         <v>87785.01007210001</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -29174,7 +28924,7 @@
         <v>87432.65044852</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -29207,7 +28957,7 @@
         <v>87432.82944852</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -29240,7 +28990,7 @@
         <v>87561.90624852</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -29273,7 +29023,7 @@
         <v>87361.52874852</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -29306,7 +29056,7 @@
         <v>87361.52874852</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -29339,7 +29089,7 @@
         <v>87204.11434852</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -29372,7 +29122,7 @@
         <v>86999.27534851999</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -29405,7 +29155,7 @@
         <v>87355.67270241999</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -29438,7 +29188,7 @@
         <v>87564.02040241999</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -29471,7 +29221,7 @@
         <v>87564.02040241999</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -29504,7 +29254,7 @@
         <v>87417.05940242</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -29537,7 +29287,7 @@
         <v>87417.05940242</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -29570,7 +29320,7 @@
         <v>87565.68140242</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -29603,7 +29353,7 @@
         <v>87183.74760242</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -29636,7 +29386,7 @@
         <v>87183.74760242</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -29669,7 +29419,7 @@
         <v>87183.74760242</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -29702,7 +29452,7 @@
         <v>87183.74760242</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -29735,7 +29485,7 @@
         <v>86831.91260241999</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -29768,7 +29518,7 @@
         <v>87012.79449654999</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -29801,7 +29551,7 @@
         <v>87360.60079654999</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29834,7 +29584,7 @@
         <v>88141.26809654999</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -29867,7 +29617,7 @@
         <v>89567.52790572999</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -29900,7 +29650,7 @@
         <v>90405.76539654999</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -29933,7 +29683,7 @@
         <v>88986.11301145</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -29966,7 +29716,7 @@
         <v>87946.04411145</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -29999,7 +29749,7 @@
         <v>87728.18971145</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -30032,7 +29782,7 @@
         <v>87227.90491145001</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -30065,7 +29815,7 @@
         <v>86027.88331145002</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -30098,7 +29848,7 @@
         <v>85849.63921145002</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -30131,7 +29881,7 @@
         <v>85271.54601145002</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -30164,7 +29914,7 @@
         <v>85381.05601145001</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -30197,7 +29947,7 @@
         <v>86341.78041145002</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -30230,7 +29980,7 @@
         <v>86467.39641145001</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -30263,7 +30013,7 @@
         <v>86727.49521145002</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -30296,7 +30046,7 @@
         <v>86273.82091145002</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -30329,7 +30079,7 @@
         <v>86273.82091145002</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -30362,7 +30112,7 @@
         <v>86211.14971145002</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -30395,7 +30145,7 @@
         <v>86211.14971145002</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -30428,7 +30178,7 @@
         <v>86407.68871145003</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -30461,7 +30211,7 @@
         <v>86249.00514696003</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -30494,7 +30244,7 @@
         <v>86249.00514696003</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -30527,7 +30277,7 @@
         <v>85544.09004696003</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -30560,7 +30310,7 @@
         <v>85021.63494696002</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -30593,7 +30343,7 @@
         <v>86375.91374696002</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -30626,7 +30376,7 @@
         <v>86126.11654696002</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -30659,7 +30409,7 @@
         <v>85679.60494696003</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -30692,7 +30442,7 @@
         <v>86590.42584696003</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -30725,7 +30475,7 @@
         <v>86590.42584696003</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -30758,7 +30508,7 @@
         <v>86679.71492457003</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -30791,7 +30541,7 @@
         <v>86647.89842457003</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -30824,7 +30574,7 @@
         <v>86325.08862457002</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -30857,7 +30607,7 @@
         <v>85991.74512457002</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -30890,7 +30640,7 @@
         <v>84565.89772457002</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -30923,7 +30673,7 @@
         <v>83930.35362457002</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -30956,7 +30706,7 @@
         <v>83930.35362457002</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -30989,7 +30739,7 @@
         <v>83665.58612457002</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -31022,7 +30772,7 @@
         <v>84134.84317250003</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -31055,7 +30805,7 @@
         <v>84338.58177250002</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -31088,7 +30838,7 @@
         <v>84640.93481827002</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -31121,7 +30871,7 @@
         <v>84879.41671827002</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -31154,7 +30904,7 @@
         <v>84955.55207513002</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -31187,7 +30937,7 @@
         <v>85170.06721827002</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -31220,7 +30970,7 @@
         <v>85074.64146141002</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -31253,7 +31003,7 @@
         <v>84846.14116141002</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -31286,7 +31036,7 @@
         <v>84462.57546141002</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -31319,7 +31069,7 @@
         <v>84623.24256141002</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -31352,7 +31102,7 @@
         <v>84623.24256141002</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -31385,7 +31135,7 @@
         <v>84202.37976141002</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
@@ -31418,7 +31168,7 @@
         <v>84248.36326141002</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -31451,7 +31201,7 @@
         <v>84611.13296141003</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -31484,7 +31234,7 @@
         <v>84611.13296141003</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -31517,7 +31267,7 @@
         <v>85173.23886141002</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -31550,7 +31300,7 @@
         <v>85473.69832840002</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -31583,7 +31333,7 @@
         <v>85076.61052840002</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -31616,7 +31366,7 @@
         <v>85076.61052840002</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -31649,7 +31399,7 @@
         <v>84410.71432840002</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -31682,7 +31432,7 @@
         <v>84233.70282840003</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -31715,7 +31465,7 @@
         <v>84576.86031116002</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -31748,7 +31498,7 @@
         <v>84367.30942782003</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -31781,7 +31531,7 @@
         <v>84402.10762782003</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31814,7 +31564,7 @@
         <v>84430.87692782003</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -31847,7 +31597,7 @@
         <v>83575.33112782003</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
@@ -31880,7 +31630,7 @@
         <v>83781.79591585003</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -31913,7 +31663,7 @@
         <v>83757.67591585004</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -31946,7 +31696,7 @@
         <v>83689.85731585004</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
@@ -31979,7 +31729,7 @@
         <v>83482.06441585004</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
@@ -32012,7 +31762,7 @@
         <v>83735.97001585003</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32045,7 +31795,7 @@
         <v>83744.04251585003</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
@@ -32078,7 +31828,7 @@
         <v>83864.24061585002</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
@@ -32111,7 +31861,7 @@
         <v>83864.24061585002</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
@@ -32144,7 +31894,7 @@
         <v>83599.82761585002</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
@@ -32177,7 +31927,7 @@
         <v>84090.39251585002</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
@@ -32210,7 +31960,7 @@
         <v>83675.11748637001</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
@@ -32243,7 +31993,7 @@
         <v>83853.61178637002</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
@@ -32276,7 +32026,7 @@
         <v>83623.53088637002</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
@@ -32309,7 +32059,7 @@
         <v>83623.53088637002</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -32342,7 +32092,7 @@
         <v>83980.37558637002</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32375,7 +32125,7 @@
         <v>83935.17781890002</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32408,7 +32158,7 @@
         <v>83173.73341890002</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32441,7 +32191,7 @@
         <v>82200.08091890003</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32474,7 +32224,7 @@
         <v>83210.59081890003</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32507,7 +32257,7 @@
         <v>82512.31601890003</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32540,7 +32290,7 @@
         <v>82644.58308455003</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32573,7 +32323,7 @@
         <v>83906.60085677003</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32606,7 +32356,7 @@
         <v>84745.69668455003</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32639,7 +32389,7 @@
         <v>84706.75138455002</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32672,7 +32422,7 @@
         <v>85051.93434276003</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32705,7 +32455,7 @@
         <v>84488.68964276003</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32738,7 +32488,7 @@
         <v>84640.05624276002</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32771,7 +32521,7 @@
         <v>85266.78764276003</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32804,7 +32554,7 @@
         <v>85625.46974276003</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32837,7 +32587,7 @@
         <v>86208.43864276004</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32870,7 +32620,7 @@
         <v>86996.46104276004</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32903,7 +32653,7 @@
         <v>87177.22570426004</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32936,7 +32686,7 @@
         <v>87177.22570426004</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32969,7 +32719,7 @@
         <v>87241.79770851004</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -33002,7 +32752,7 @@
         <v>87086.28030851005</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -33035,7 +32785,7 @@
         <v>86164.69760851005</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -33068,7 +32818,7 @@
         <v>86318.77420851005</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -33101,7 +32851,7 @@
         <v>86318.77420851005</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -33134,7 +32884,7 @@
         <v>85681.80020851005</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -33167,7 +32917,7 @@
         <v>85681.80020851005</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -33200,7 +32950,7 @@
         <v>86028.85880851005</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33233,7 +32983,7 @@
         <v>86028.85880851005</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33266,7 +33016,7 @@
         <v>86028.85880851005</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33299,7 +33049,7 @@
         <v>86243.27490851005</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33332,7 +33082,7 @@
         <v>86738.06380851005</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33365,7 +33115,7 @@
         <v>86990.96298340005</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33398,7 +33148,7 @@
         <v>86990.96298340005</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33431,7 +33181,7 @@
         <v>87758.86038340005</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33464,7 +33214,7 @@
         <v>89398.75126928005</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -33497,7 +33247,7 @@
         <v>90398.52738247006</v>
       </c>
       <c r="H938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
@@ -33530,7 +33280,7 @@
         <v>90940.93485783006</v>
       </c>
       <c r="H939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
@@ -33563,7 +33313,7 @@
         <v>90330.25871306006</v>
       </c>
       <c r="H940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33596,7 +33346,7 @@
         <v>89951.77116065005</v>
       </c>
       <c r="H941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33629,7 +33379,7 @@
         <v>91027.23046994006</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33662,7 +33412,7 @@
         <v>90786.65706994006</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33695,7 +33445,7 @@
         <v>91148.67426994006</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
@@ -33728,7 +33478,7 @@
         <v>91628.75616994007</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33761,7 +33511,7 @@
         <v>91852.63636994007</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33794,7 +33544,7 @@
         <v>92779.50258745007</v>
       </c>
       <c r="H947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33827,7 +33577,7 @@
         <v>92779.50258745007</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33860,7 +33610,7 @@
         <v>92386.18238745007</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33893,7 +33643,7 @@
         <v>91812.16420140007</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33926,7 +33676,7 @@
         <v>92303.58370290007</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33959,7 +33709,7 @@
         <v>92353.84620290007</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33992,7 +33742,7 @@
         <v>92389.78380290007</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34025,7 +33775,7 @@
         <v>92188.19600290008</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -34058,7 +33808,7 @@
         <v>92325.17013041007</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34091,7 +33841,7 @@
         <v>92680.81056401007</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34124,7 +33874,7 @@
         <v>92791.57126401007</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34157,7 +33907,7 @@
         <v>91375.56186216007</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34190,7 +33940,7 @@
         <v>91255.18536216007</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34223,7 +33973,7 @@
         <v>91040.01944296008</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34256,7 +34006,7 @@
         <v>91155.68264296008</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34289,7 +34039,7 @@
         <v>90649.59544296008</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34322,7 +34072,7 @@
         <v>91122.56824296009</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34355,7 +34105,7 @@
         <v>90969.76745612008</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34388,7 +34138,7 @@
         <v>90840.51275612008</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34421,7 +34171,7 @@
         <v>91120.66115612008</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34454,7 +34204,7 @@
         <v>95820.85626928008</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34487,7 +34237,7 @@
         <v>96335.73320817007</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34520,7 +34270,7 @@
         <v>97751.49204010007</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34553,7 +34303,7 @@
         <v>100374.1044593301</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34586,7 +34336,7 @@
         <v>103742.6688515001</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34619,7 +34369,7 @@
         <v>105217.1536066901</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34652,7 +34402,7 @@
         <v>104027.4085724701</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34685,7 +34435,7 @@
         <v>102600.8887724701</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34718,7 +34468,7 @@
         <v>102600.8887724701</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34751,7 +34501,7 @@
         <v>102600.8887724701</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34784,7 +34534,7 @@
         <v>102376.2235724701</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34817,7 +34567,7 @@
         <v>101993.9834724701</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34850,7 +34600,7 @@
         <v>102433.5235724701</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34883,7 +34633,7 @@
         <v>102885.3755143001</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34916,7 +34666,7 @@
         <v>103198.3022143001</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34949,7 +34699,7 @@
         <v>104387.8708179901</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34982,7 +34732,7 @@
         <v>103893.8964179901</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -35015,7 +34765,7 @@
         <v>104924.0155179901</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -35048,7 +34798,7 @@
         <v>103281.4236564801</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -35081,7 +34831,7 @@
         <v>103281.4236564801</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -35114,7 +34864,7 @@
         <v>103183.2133564801</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -35147,7 +34897,7 @@
         <v>102721.7375857201</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -35180,7 +34930,7 @@
         <v>102150.6765857201</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -35213,7 +34963,7 @@
         <v>103890.7643857201</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35246,7 +34996,7 @@
         <v>103446.4457857201</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35279,7 +35029,7 @@
         <v>104195.1058857201</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35312,7 +35062,7 @@
         <v>104200.7531857201</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35345,7 +35095,7 @@
         <v>104615.8439857201</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -35378,7 +35128,7 @@
         <v>104987.3637857201</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35411,7 +35161,7 @@
         <v>105342.9493683</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35444,7 +35194,7 @@
         <v>105185.324292</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35477,7 +35227,7 @@
         <v>105211.261492</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35510,7 +35260,7 @@
         <v>105757.2541920001</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35543,7 +35293,7 @@
         <v>105634.368092</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35576,7 +35326,7 @@
         <v>105782.5061182401</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35609,7 +35359,7 @@
         <v>105928.56301824</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35642,7 +35392,7 @@
         <v>106282.1202118001</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35675,7 +35425,7 @@
         <v>106419.5438118</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -35708,7 +35458,7 @@
         <v>105875.7958118</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -35741,7 +35491,7 @@
         <v>105263.4653118</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
@@ -35774,7 +35524,7 @@
         <v>104960.53172619</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
@@ -35807,7 +35557,7 @@
         <v>105000.3884261901</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
@@ -35840,7 +35590,7 @@
         <v>105000.3884261901</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
@@ -35873,7 +35623,7 @@
         <v>105169.5440624801</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
@@ -35906,7 +35656,7 @@
         <v>104857.0054785801</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
@@ -35939,7 +35689,7 @@
         <v>105527.2595822801</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35972,7 +35722,7 @@
         <v>105523.0311822801</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -36005,7 +35755,7 @@
         <v>105596.5868822801</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -36038,7 +35788,7 @@
         <v>105274.8974822801</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -36071,7 +35821,7 @@
         <v>105288.0010822801</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -36104,7 +35854,7 @@
         <v>105553.0264822801</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -36137,7 +35887,7 @@
         <v>105726.5978838201</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -36170,7 +35920,7 @@
         <v>105646.4873823801</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -36203,7 +35953,7 @@
         <v>105585.3959823801</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -36236,7 +35986,7 @@
         <v>105849.5397823801</v>
       </c>
       <c r="H1021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
@@ -36269,7 +36019,7 @@
         <v>105721.8098241401</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -36302,7 +36052,7 @@
         <v>105606.8660241401</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -36335,7 +36085,7 @@
         <v>105385.1252321101</v>
       </c>
       <c r="H1024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -36368,7 +36118,7 @@
         <v>105727.2795134001</v>
       </c>
       <c r="H1025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -36401,7 +36151,7 @@
         <v>105491.2051134001</v>
       </c>
       <c r="H1026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -36434,7 +36184,7 @@
         <v>105729.3541676201</v>
       </c>
       <c r="H1027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -36467,7 +36217,7 @@
         <v>103732.7588410501</v>
       </c>
       <c r="H1028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -36500,7 +36250,7 @@
         <v>103732.7588410501</v>
       </c>
       <c r="H1029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -36533,7 +36283,7 @@
         <v>103712.3277410501</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -36566,7 +36316,7 @@
         <v>104071.9080410501</v>
       </c>
       <c r="H1031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -36599,7 +36349,7 @@
         <v>104186.1217410501</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -36632,7 +36382,7 @@
         <v>104589.3867693401</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36665,7 +36415,7 @@
         <v>104343.4490693401</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36698,7 +36448,7 @@
         <v>105685.0115693401</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36731,7 +36481,7 @@
         <v>105710.0306693401</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36764,7 +36514,7 @@
         <v>105580.0822693401</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36797,7 +36547,7 @@
         <v>105549.3636572001</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36830,7 +36580,7 @@
         <v>105086.0212572001</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36863,7 +36613,7 @@
         <v>105774.4403793301</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36896,7 +36646,7 @@
         <v>105499.5266793301</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36929,7 +36679,7 @@
         <v>105653.7528793301</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36962,7 +36712,7 @@
         <v>103660.3280793301</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36995,7 +36745,7 @@
         <v>104777.3479793301</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -37028,7 +36778,7 @@
         <v>104090.7128793301</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -37061,7 +36811,7 @@
         <v>104581.1938793301</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -37094,7 +36844,7 @@
         <v>105510.2360793301</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -37127,7 +36877,7 @@
         <v>105969.8663793301</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -37160,7 +36910,7 @@
         <v>105874.1333793301</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -37193,7 +36943,7 @@
         <v>105858.4131793301</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -37226,7 +36976,7 @@
         <v>105858.4131793301</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -37259,7 +37009,7 @@
         <v>105858.4131793301</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -37292,7 +37042,7 @@
         <v>105858.4131793301</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -37325,7 +37075,7 @@
         <v>105766.8244793301</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37358,7 +37108,7 @@
         <v>105667.1940793301</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37391,7 +37141,7 @@
         <v>105402.5915793301</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37424,7 +37174,7 @@
         <v>105685.4328594101</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37457,7 +37207,7 @@
         <v>105170.2816594101</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37490,7 +37240,7 @@
         <v>105276.3317634801</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37523,7 +37273,7 @@
         <v>105059.8324634801</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -37556,7 +37306,7 @@
         <v>105416.5007634801</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37589,7 +37339,7 @@
         <v>105298.9504634801</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37622,7 +37372,7 @@
         <v>105040.9429049901</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37655,7 +37405,7 @@
         <v>104932.5674228301</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -37688,7 +37438,7 @@
         <v>105046.5081228301</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -37721,7 +37471,7 @@
         <v>105032.9959228301</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -37754,7 +37504,7 @@
         <v>105097.1750228301</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37787,7 +37537,7 @@
         <v>104966.0819228301</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -37820,7 +37570,7 @@
         <v>104728.7395228301</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -37853,7 +37603,7 @@
         <v>105039.9841228302</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -37886,7 +37636,7 @@
         <v>105486.3362228302</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -37919,7 +37669,7 @@
         <v>105486.3362228302</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37952,7 +37702,7 @@
         <v>105392.7762228302</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -37985,7 +37735,7 @@
         <v>105405.6532228302</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -38018,7 +37768,7 @@
         <v>105421.3660228301</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -38051,7 +37801,7 @@
         <v>105272.9950228301</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -38084,7 +37834,7 @@
         <v>104866.0806228302</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -38117,7 +37867,7 @@
         <v>104947.7221228301</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -38150,7 +37900,7 @@
         <v>105467.4918228302</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -38183,7 +37933,7 @@
         <v>105341.3105228302</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -38216,7 +37966,7 @@
         <v>105541.3927228302</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -38249,7 +37999,7 @@
         <v>105841.8070228302</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -38282,7 +38032,7 @@
         <v>106912.9718228302</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -38315,7 +38065,7 @@
         <v>105941.2650228302</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -38348,7 +38098,7 @@
         <v>106349.0822228302</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -38381,7 +38131,7 @@
         <v>105438.2464228302</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -38414,7 +38164,7 @@
         <v>105375.8966228302</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -38447,7 +38197,7 @@
         <v>105571.1226228302</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -38480,7 +38230,7 @@
         <v>105571.1226228302</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -38513,7 +38263,7 @@
         <v>105828.0015304502</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -38546,7 +38296,7 @@
         <v>105843.4262304502</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -38579,7 +38329,7 @@
         <v>105843.4262304502</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -38612,7 +38362,7 @@
         <v>105422.6055304502</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38645,7 +38395,7 @@
         <v>105333.9112304502</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -38678,7 +38428,7 @@
         <v>104531.0394304502</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38711,7 +38461,7 @@
         <v>103998.7603304502</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38744,7 +38494,7 @@
         <v>103803.5770304502</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38777,7 +38527,7 @@
         <v>103905.4116304502</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38810,7 +38560,7 @@
         <v>104439.7786304502</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38843,7 +38593,7 @@
         <v>104517.3797304502</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38876,7 +38626,7 @@
         <v>104582.2988304502</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38909,7 +38659,7 @@
         <v>104435.9957304502</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38942,7 +38692,7 @@
         <v>104550.4796304502</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -38975,7 +38725,7 @@
         <v>104531.9726304502</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -39008,7 +38758,7 @@
         <v>106610.1327304502</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -39041,7 +38791,7 @@
         <v>106283.8481304502</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -39074,7 +38824,7 @@
         <v>106285.5949304502</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -39107,7 +38857,7 @@
         <v>106570.4557304502</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -39140,7 +38890,7 @@
         <v>106433.3156304502</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -39173,7 +38923,7 @@
         <v>106178.5825304502</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -39206,7 +38956,7 @@
         <v>105948.5521304502</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -39239,7 +38989,7 @@
         <v>106006.1781092302</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -39272,7 +39022,7 @@
         <v>105835.7541092302</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -39305,7 +39055,7 @@
         <v>105836.0502092302</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -39338,7 +39088,7 @@
         <v>105729.9702092302</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -39371,7 +39121,7 @@
         <v>105667.1188092302</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -39404,7 +39154,7 @@
         <v>105370.4060092302</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -39437,7 +39187,7 @@
         <v>105385.2067092302</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -39470,7 +39220,7 @@
         <v>105338.2064092302</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -39503,7 +39253,7 @@
         <v>105292.0034092302</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -39536,7 +39286,7 @@
         <v>105345.6710092302</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39569,7 +39319,7 @@
         <v>105688.9827092302</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -39602,7 +39352,7 @@
         <v>104495.9097735402</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -39635,7 +39385,7 @@
         <v>104434.4167709202</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -39668,7 +39418,7 @@
         <v>104345.3167709202</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39701,7 +39451,7 @@
         <v>103659.0622709202</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -39734,7 +39484,7 @@
         <v>103527.2157709202</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -39767,7 +39517,7 @@
         <v>103614.9676709202</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39800,7 +39550,7 @@
         <v>103614.9676709202</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39833,7 +39583,7 @@
         <v>103977.1948808902</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39866,7 +39616,7 @@
         <v>104185.1187226702</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -39899,7 +39649,7 @@
         <v>104115.8979226702</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -39932,7 +39682,7 @@
         <v>104098.6756226702</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -39965,7 +39715,7 @@
         <v>104229.6048959602</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -39998,7 +39748,7 @@
         <v>104254.2506598102</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -40031,7 +39781,7 @@
         <v>104254.2506598102</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -40064,7 +39814,7 @@
         <v>104413.9610598102</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -40097,7 +39847,7 @@
         <v>104246.0437598102</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -40130,7 +39880,7 @@
         <v>104348.8511598102</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -40163,7 +39913,7 @@
         <v>104419.4166759102</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -40196,7 +39946,7 @@
         <v>104419.4166759102</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -40229,7 +39979,7 @@
         <v>104349.9941759102</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -40262,7 +40012,7 @@
         <v>104362.2533703002</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -40295,7 +40045,7 @@
         <v>104342.2533703002</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -40328,7 +40078,7 @@
         <v>104049.0430703002</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -40361,7 +40111,7 @@
         <v>104049.0430703002</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -40394,7 +40144,7 @@
         <v>104134.5152703002</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -40427,7 +40177,7 @@
         <v>104142.2041703002</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -40460,7 +40210,7 @@
         <v>104320.4710703002</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -40493,7 +40243,7 @@
         <v>104164.4877703002</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -40526,7 +40276,7 @@
         <v>104311.6604703002</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -40559,7 +40309,7 @@
         <v>104311.6604703002</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -40592,7 +40342,7 @@
         <v>104654.1321703002</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -40625,7 +40375,7 @@
         <v>104754.4153703002</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -40658,7 +40408,7 @@
         <v>104884.1816703002</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -40691,7 +40441,7 @@
         <v>105450.7961703002</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -40724,7 +40474,7 @@
         <v>105509.6675703002</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -40757,7 +40507,7 @@
         <v>105118.7323703002</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -40790,7 +40540,7 @@
         <v>105118.7323703002</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -40823,7 +40573,7 @@
         <v>105273.4506703002</v>
       </c>
       <c r="H1160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -40856,7 +40606,7 @@
         <v>104897.6211703002</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -40889,7 +40639,7 @@
         <v>104920.2236703002</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -40922,7 +40672,7 @@
         <v>104538.7621703002</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -40955,7 +40705,7 @@
         <v>104207.3708703002</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -40988,7 +40738,7 @@
         <v>104478.7385703002</v>
       </c>
       <c r="H1165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -41021,7 +40771,7 @@
         <v>104031.7558703002</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -41054,7 +40804,7 @@
         <v>104031.7558703002</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -41087,7 +40837,7 @@
         <v>103570.6019703002</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -41120,7 +40870,7 @@
         <v>103644.1537703002</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -41153,7 +40903,7 @@
         <v>103047.1261703002</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -41186,7 +40936,7 @@
         <v>104332.1890703002</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -41219,7 +40969,7 @@
         <v>104108.0598703002</v>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -41252,7 +41002,7 @@
         <v>103679.6437473102</v>
       </c>
       <c r="H1173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -41285,7 +41035,7 @@
         <v>103925.2099473102</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -41318,7 +41068,7 @@
         <v>103565.7099473102</v>
       </c>
       <c r="H1175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -41351,7 +41101,7 @@
         <v>103565.7099473102</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -41384,7 +41134,7 @@
         <v>103867.0796350302</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -41417,7 +41167,7 @@
         <v>103897.7365417502</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -41450,7 +41200,7 @@
         <v>103674.4781361902</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -41483,7 +41233,7 @@
         <v>103578.2422361902</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -41516,7 +41266,7 @@
         <v>104310.4247067702</v>
       </c>
       <c r="H1181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="inlineStr"/>
@@ -41549,7 +41299,7 @@
         <v>104310.4247067702</v>
       </c>
       <c r="H1182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="inlineStr"/>
@@ -41582,7 +41332,7 @@
         <v>104249.4039067702</v>
       </c>
       <c r="H1183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="inlineStr"/>
@@ -41615,7 +41365,7 @@
         <v>103729.2821067702</v>
       </c>
       <c r="H1184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="inlineStr"/>
@@ -41648,7 +41398,7 @@
         <v>103729.2821067702</v>
       </c>
       <c r="H1185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="inlineStr"/>
@@ -41681,7 +41431,7 @@
         <v>103868.8236067702</v>
       </c>
       <c r="H1186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="inlineStr"/>
@@ -41714,7 +41464,7 @@
         <v>103871.4278067702</v>
       </c>
       <c r="H1187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="inlineStr"/>
@@ -41747,7 +41497,7 @@
         <v>103981.1552067702</v>
       </c>
       <c r="H1188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="inlineStr"/>
@@ -41780,7 +41530,7 @@
         <v>103981.1552067702</v>
       </c>
       <c r="H1189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="inlineStr"/>
@@ -41813,7 +41563,7 @@
         <v>103981.1552067702</v>
       </c>
       <c r="H1190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="inlineStr"/>
@@ -41846,7 +41596,7 @@
         <v>103754.4835067702</v>
       </c>
       <c r="H1191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="inlineStr"/>
@@ -41879,7 +41629,7 @@
         <v>103071.5197067702</v>
       </c>
       <c r="H1192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="inlineStr"/>
@@ -41912,7 +41662,7 @@
         <v>103712.1761067702</v>
       </c>
       <c r="H1193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="inlineStr"/>
@@ -41945,7 +41695,7 @@
         <v>103506.2942067702</v>
       </c>
       <c r="H1194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="inlineStr"/>
@@ -41978,7 +41728,7 @@
         <v>103632.1295067702</v>
       </c>
       <c r="H1195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="inlineStr"/>
@@ -42011,7 +41761,7 @@
         <v>103109.7013067702</v>
       </c>
       <c r="H1196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="inlineStr"/>
@@ -42044,7 +41794,7 @@
         <v>102974.1057067702</v>
       </c>
       <c r="H1197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="inlineStr"/>
@@ -42077,7 +41827,7 @@
         <v>101626.4368067702</v>
       </c>
       <c r="H1198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="inlineStr"/>
@@ -42110,7 +41860,7 @@
         <v>101626.4368067702</v>
       </c>
       <c r="H1199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="inlineStr"/>
@@ -42143,7 +41893,7 @@
         <v>101363.6067624602</v>
       </c>
       <c r="H1200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="inlineStr"/>
@@ -42176,7 +41926,7 @@
         <v>101837.7566181502</v>
       </c>
       <c r="H1201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="inlineStr"/>
@@ -42209,7 +41959,7 @@
         <v>102250.4973181502</v>
       </c>
       <c r="H1202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="inlineStr"/>
@@ -42242,7 +41992,7 @@
         <v>101792.6311136202</v>
       </c>
       <c r="H1203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="inlineStr"/>
@@ -42275,7 +42025,7 @@
         <v>101563.3782513202</v>
       </c>
       <c r="H1204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="inlineStr"/>
@@ -42308,7 +42058,7 @@
         <v>101301.6108513202</v>
       </c>
       <c r="H1205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="inlineStr"/>
@@ -42341,7 +42091,7 @@
         <v>100827.5863070102</v>
       </c>
       <c r="H1206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="inlineStr"/>
@@ -42374,7 +42124,7 @@
         <v>99010.46810701021</v>
       </c>
       <c r="H1207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="inlineStr"/>
@@ -42407,7 +42157,7 @@
         <v>98420.5965827702</v>
       </c>
       <c r="H1208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="inlineStr"/>
@@ -42440,7 +42190,7 @@
         <v>96451.71308277021</v>
       </c>
       <c r="H1209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="inlineStr"/>
@@ -42473,7 +42223,7 @@
         <v>95586.20648277021</v>
       </c>
       <c r="H1210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="inlineStr"/>
@@ -42506,7 +42256,7 @@
         <v>95093.99528277021</v>
       </c>
       <c r="H1211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="inlineStr"/>
@@ -42539,7 +42289,7 @@
         <v>95789.1078827702</v>
       </c>
       <c r="H1212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="inlineStr"/>
@@ -42572,7 +42322,7 @@
         <v>95839.0713827702</v>
       </c>
       <c r="H1213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="inlineStr"/>
@@ -42605,7 +42355,7 @@
         <v>96346.85928277019</v>
       </c>
       <c r="H1214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="inlineStr"/>
@@ -42638,7 +42388,7 @@
         <v>96341.6513827702</v>
       </c>
       <c r="H1215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="inlineStr"/>
@@ -42671,7 +42421,7 @@
         <v>96079.96468277019</v>
       </c>
       <c r="H1216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="inlineStr"/>
@@ -42704,7 +42454,7 @@
         <v>96296.28168277019</v>
       </c>
       <c r="H1217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="inlineStr"/>
@@ -42737,7 +42487,7 @@
         <v>95843.52898277019</v>
       </c>
       <c r="H1218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="inlineStr"/>
@@ -42770,7 +42520,7 @@
         <v>96259.29792153019</v>
       </c>
       <c r="H1219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="inlineStr"/>
@@ -42803,7 +42553,7 @@
         <v>96259.4642575402</v>
       </c>
       <c r="H1220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="inlineStr"/>
@@ -42836,7 +42586,7 @@
         <v>96177.9103084102</v>
       </c>
       <c r="H1221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="inlineStr"/>
@@ -42869,7 +42619,7 @@
         <v>96175.9796084102</v>
       </c>
       <c r="H1222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="inlineStr"/>
@@ -42902,7 +42652,7 @@
         <v>95954.5728084102</v>
       </c>
       <c r="H1223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="inlineStr"/>
@@ -42935,7 +42685,7 @@
         <v>96224.9033084102</v>
       </c>
       <c r="H1224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="inlineStr"/>
@@ -42968,7 +42718,7 @@
         <v>96478.4499084102</v>
       </c>
       <c r="H1225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="inlineStr"/>
@@ -42979,6 +42729,6 @@
       <c r="M1225" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest BTG.xlsx
+++ b/BackTest/2020-01-16 BackTest BTG.xlsx
@@ -451,7 +451,7 @@
         <v>6833.242522109998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -517,11 +517,17 @@
         <v>6587.304369609999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9260</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -558,7 +564,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -589,11 +595,9 @@
         <v>5836.403569609998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -628,11 +632,9 @@
         <v>5836.403569609998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -1564,9 +1566,11 @@
         <v>4926.265131619999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>8920</v>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
@@ -1796,9 +1800,11 @@
         <v>4895.31093162</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8920</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -2028,9 +2034,11 @@
         <v>5111.289931619998</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9105</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2104,9 +2112,11 @@
         <v>4700.889231619998</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>9000</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -8615,11 +8625,9 @@
         <v>7402.567055609995</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>9710</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
@@ -8654,11 +8662,9 @@
         <v>8467.476066829995</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>9800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -14798,16 +14804,18 @@
         <v>74698.26362088999</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
       <c r="M379" t="inlineStr"/>
     </row>
     <row r="380">
@@ -14833,11 +14841,15 @@
         <v>78580.47420824999</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14866,11 +14878,15 @@
         <v>87200.76825926999</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14899,11 +14915,15 @@
         <v>83574.19564748999</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14932,11 +14952,15 @@
         <v>77400.70566675</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14965,11 +14989,15 @@
         <v>71072.06841841</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14998,11 +15026,15 @@
         <v>77645.48626877999</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15031,11 +15063,15 @@
         <v>86590.01200818</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15064,11 +15100,15 @@
         <v>99376.97465657</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15097,11 +15137,15 @@
         <v>87134.69581854</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15130,14 +15174,16 @@
         <v>78113.27790371999</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L389" t="inlineStr"/>
       <c r="M389" t="inlineStr"/>
     </row>
     <row r="390">
@@ -15196,7 +15242,7 @@
         <v>78980.52585977998</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15328,7 +15374,7 @@
         <v>90618.98633974999</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15361,7 +15407,7 @@
         <v>87592.59724021998</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15394,7 +15440,7 @@
         <v>85416.68889603998</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15427,7 +15473,7 @@
         <v>81832.32761105998</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15460,7 +15506,7 @@
         <v>76326.30058883998</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15526,7 +15572,7 @@
         <v>74359.37720689998</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15559,7 +15605,7 @@
         <v>76775.90192703999</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15625,7 +15671,7 @@
         <v>73253.87058726999</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15658,7 +15704,7 @@
         <v>71646.74528561</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15691,7 +15737,7 @@
         <v>72538.76380936999</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15724,7 +15770,7 @@
         <v>71948.99466334</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15757,7 +15803,7 @@
         <v>70954.64974025</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16021,7 +16067,7 @@
         <v>51736.60964342999</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16054,7 +16100,7 @@
         <v>57881.93030296999</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16087,7 +16133,7 @@
         <v>54321.96904690999</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16120,7 +16166,7 @@
         <v>57023.26435286998</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16318,7 +16364,7 @@
         <v>63587.10668258998</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
